--- a/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5740</v>
+        <v>5735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0513106910695076</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1622111021691109</v>
+        <v>0.1620771053621666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>2985</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8359</v>
+        <v>8279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04000033507894955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01190583037115366</v>
+        <v>0.01197829821712298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1120316311442975</v>
+        <v>0.1109553493922319</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +862,7 @@
         <v>33570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29646</v>
+        <v>29651</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -871,7 +871,7 @@
         <v>0.9486893089304924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8377888978308891</v>
+        <v>0.8379228946378334</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>38062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -892,7 +892,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,19 +904,19 @@
         <v>71632</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66258</v>
+        <v>66338</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73729</v>
+        <v>73723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9599996649210505</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8879683688557026</v>
+        <v>0.8890446506077682</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9880941696288463</v>
+        <v>0.9880217017828771</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>4442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1203</v>
+        <v>1221</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10499</v>
+        <v>10957</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04538728713885751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01228894806733138</v>
+        <v>0.01247049875729696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1072710263760748</v>
+        <v>0.1119518599356786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1042,19 +1042,19 @@
         <v>4442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108</v>
+        <v>1201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11022</v>
+        <v>10476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02699993510694663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006734089993410059</v>
+        <v>0.007301913131332213</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06699310588715379</v>
+        <v>0.06367298875109033</v>
       </c>
     </row>
     <row r="9">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7484</v>
+        <v>6518</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02989694282952637</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1122869824189603</v>
+        <v>0.09778335862604265</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1092,19 +1092,19 @@
         <v>3920</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>914</v>
+        <v>983</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9406</v>
+        <v>9094</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04005073326240303</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009337982571874032</v>
+        <v>0.01004134554616867</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09610573009053147</v>
+        <v>0.0929141803849215</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1113,19 +1113,19 @@
         <v>5913</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2013</v>
+        <v>2110</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12022</v>
+        <v>11957</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03593721754210102</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01223724066790703</v>
+        <v>0.01282602878957166</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07307134767754178</v>
+        <v>0.07267459201951246</v>
       </c>
     </row>
     <row r="10">
@@ -1142,7 +1142,7 @@
         <v>64661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59170</v>
+        <v>60136</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1151,7 +1151,7 @@
         <v>0.9701030571704736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8877130175810394</v>
+        <v>0.9022166413739561</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1163,19 +1163,19 @@
         <v>89513</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82038</v>
+        <v>82412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93848</v>
+        <v>93954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9145619795987394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8381887567030539</v>
+        <v>0.8420177569675055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9588553284804162</v>
+        <v>0.9599428981417513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -1184,19 +1184,19 @@
         <v>154174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146159</v>
+        <v>146212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159224</v>
+        <v>159455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9370628473509524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8883484965993251</v>
+        <v>0.888668152895649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9677578047904924</v>
+        <v>0.9691574718599665</v>
       </c>
     </row>
     <row r="11">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5750</v>
+        <v>7658</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01389953213872996</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06884936427289498</v>
+        <v>0.09169492161958172</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8027</v>
+        <v>7547</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01569437840154588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>4.163836562966946e-07</v>
+        <v>4.15295452577948e-07</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05969770468568365</v>
+        <v>0.0561255312970276</v>
       </c>
     </row>
     <row r="13">
@@ -1406,7 +1406,7 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1415,7 +1415,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>82360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77771</v>
+        <v>75863</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>83521</v>
@@ -1436,7 +1436,7 @@
         <v>0.98610046786127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.931150635727105</v>
+        <v>0.9083050783804193</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>132351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126434</v>
+        <v>126914</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>134461</v>
@@ -1457,10 +1457,10 @@
         <v>0.9843056215984541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9403022953143169</v>
+        <v>0.9438744687029724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9999995836163437</v>
+        <v>0.9999995847045474</v>
       </c>
     </row>
     <row r="15">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5818</v>
+        <v>5107</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03013872606167795</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.105540287791139</v>
+        <v>0.09264142165927279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5387</v>
+        <v>5209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01425581255063412</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07248979953236311</v>
+        <v>0.07009806102241356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1641,19 +1641,19 @@
         <v>2721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7583</v>
+        <v>7591</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02101979641187549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006396055170375163</v>
+        <v>0.006371538289376126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05858365603310932</v>
+        <v>0.05864394586135862</v>
       </c>
     </row>
     <row r="18">
@@ -1670,7 +1670,7 @@
         <v>53461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49304</v>
+        <v>50015</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>55122</v>
@@ -1679,7 +1679,7 @@
         <v>0.969861273938322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8944597122088604</v>
+        <v>0.9073585783407273</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>73254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68926</v>
+        <v>69104</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>74313</v>
@@ -1700,7 +1700,7 @@
         <v>0.9857441874493659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9275102004676371</v>
+        <v>0.9299019389775864</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1712,19 +1712,19 @@
         <v>126715</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121853</v>
+        <v>121845</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>128608</v>
+        <v>128611</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9789802035881245</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9414163439668917</v>
+        <v>0.9413560541386415</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9936039448296248</v>
+        <v>0.9936284617106239</v>
       </c>
     </row>
     <row r="19">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4081</v>
+        <v>4557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02957935006790525</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1390717536214151</v>
+        <v>0.1552940388705714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6572</v>
+        <v>6087</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02846115616127036</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09309597295055298</v>
+        <v>0.08622435008465119</v>
       </c>
     </row>
     <row r="21">
@@ -1887,19 +1887,19 @@
         <v>3413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7467</v>
+        <v>7613</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1163016184095194</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0296946271185217</v>
+        <v>0.02896277800778036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2544266677772478</v>
+        <v>0.2594126419646152</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>3205</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8144</v>
+        <v>7929</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07771025707853205</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0</v>
+        <v>0.02179034660309171</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1974380371631383</v>
+        <v>0.1922332039123466</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1929,19 +1929,19 @@
         <v>6618</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2969</v>
+        <v>2904</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12814</v>
+        <v>13019</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09375356806264523</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04205830133475087</v>
+        <v>0.04113341228958357</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1815147450373472</v>
+        <v>0.1844230655753187</v>
       </c>
     </row>
     <row r="22">
@@ -1958,19 +1958,19 @@
         <v>25066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -1979,19 +1979,19 @@
         <v>36900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31578</v>
+        <v>30696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40112</v>
+        <v>40098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8946242002304846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7656095551427021</v>
+        <v>0.7442281645137536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9725081034750598</v>
+        <v>0.9721703309257469</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2000,19 +2000,19 @@
         <v>61965</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55064</v>
+        <v>55155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66361</v>
+        <v>66401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8777852757760845</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7800194840409155</v>
+        <v>0.7813054854770816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9400478664200425</v>
+        <v>0.9406222577439227</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6038</v>
+        <v>5689</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01688354145369436</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05699701181430371</v>
+        <v>0.0537033127717888</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2341,19 +2341,19 @@
         <v>3057</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8499</v>
+        <v>8264</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02609767862278903</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007605394239817053</v>
+        <v>0.007650641621345376</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07256913994955018</v>
+        <v>0.07055559199852526</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2362,19 +2362,19 @@
         <v>4845</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11766</v>
+        <v>10792</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02172180624947159</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008234557276850714</v>
+        <v>0.008215841410521398</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05275243593153581</v>
+        <v>0.04838469268907493</v>
       </c>
     </row>
     <row r="29">
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4138</v>
+        <v>4095</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007754258671459746</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03906858327139742</v>
+        <v>0.03865866922734446</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4412</v>
+        <v>4969</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003682563616461966</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0197790367766917</v>
+        <v>0.02227659595350222</v>
       </c>
     </row>
     <row r="30">
@@ -2454,19 +2454,19 @@
         <v>103318</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99103</v>
+        <v>98917</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105144</v>
+        <v>105114</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9753621998748458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9355653229069836</v>
+        <v>0.9338091470783874</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9925987997358167</v>
+        <v>0.9923148798149364</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>114</v>
@@ -2475,19 +2475,19 @@
         <v>114064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108622</v>
+        <v>108857</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116230</v>
+        <v>116225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.973902321377211</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9274308600504498</v>
+        <v>0.9294444080014748</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9923946057601829</v>
+        <v>0.9923493583786546</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>219</v>
@@ -2496,19 +2496,19 @@
         <v>217383</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>210965</v>
+        <v>211419</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221004</v>
+        <v>221040</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9745956301340665</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9458249602028288</v>
+        <v>0.9478603077984019</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9908310225639411</v>
+        <v>0.9909930615086703</v>
       </c>
     </row>
     <row r="31">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5148</v>
+        <v>5186</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009245507088082095</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04600596255577059</v>
+        <v>0.04634371299950942</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2621,19 +2621,19 @@
         <v>4620</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1312</v>
+        <v>1201</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10683</v>
+        <v>11017</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03014849063119156</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008564724318922043</v>
+        <v>0.007834894856764791</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06971850553463871</v>
+        <v>0.07189990841388913</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2642,19 +2642,19 @@
         <v>5654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2096</v>
+        <v>1944</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12923</v>
+        <v>12345</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02132641015329446</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007904075152934835</v>
+        <v>0.007330708733992978</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04874317680978945</v>
+        <v>0.04656501073698081</v>
       </c>
     </row>
     <row r="33">
@@ -2671,19 +2671,19 @@
         <v>4905</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1910</v>
+        <v>1845</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11237</v>
+        <v>10899</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0438326363544629</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01707004358603232</v>
+        <v>0.016488999532365</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1004244344226239</v>
+        <v>0.09740889808826157</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>5</v>
@@ -2692,19 +2692,19 @@
         <v>5756</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2307</v>
+        <v>2236</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12807</v>
+        <v>12634</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03756401163655886</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01505392118000261</v>
+        <v>0.01459216695039334</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08358317187876833</v>
+        <v>0.0824568531759398</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>10</v>
@@ -2713,19 +2713,19 @@
         <v>10660</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5301</v>
+        <v>5148</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>18889</v>
+        <v>18671</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0402096775833856</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01999396111565903</v>
+        <v>0.01941818828958761</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0712473767576791</v>
+        <v>0.07042703324704404</v>
       </c>
     </row>
     <row r="34">
@@ -2742,19 +2742,19 @@
         <v>105954</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99093</v>
+        <v>99056</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>109027</v>
+        <v>109894</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.946921856557455</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8856073489321958</v>
+        <v>0.8852710680541155</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9743898207283695</v>
+        <v>0.98213076563987</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>135</v>
@@ -2763,19 +2763,19 @@
         <v>142850</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>134820</v>
+        <v>134619</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>148494</v>
+        <v>148592</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9322874977322496</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8798851675002041</v>
+        <v>0.8785737043793393</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9691243503928731</v>
+        <v>0.9697603695611013</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>245</v>
@@ -2784,19 +2784,19 @@
         <v>248804</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>237964</v>
+        <v>239295</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>255674</v>
+        <v>255479</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9384639122633199</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8975769892492855</v>
+        <v>0.902598105070469</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9643785559813423</v>
+        <v>0.9636430537393907</v>
       </c>
     </row>
     <row r="35">
@@ -2888,19 +2888,19 @@
         <v>4640</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1708</v>
+        <v>1790</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10391</v>
+        <v>10451</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009235220828753374</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003398480084264861</v>
+        <v>0.00356235658764911</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02068041159921359</v>
+        <v>0.02080034893523233</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -2909,19 +2909,19 @@
         <v>14420</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7854</v>
+        <v>8251</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>22954</v>
+        <v>24496</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02130538783815475</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01160408085792272</v>
+        <v>0.01219084568172347</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03391364210294133</v>
+        <v>0.036192234021306</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>19</v>
@@ -2930,19 +2930,19 @@
         <v>19061</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11692</v>
+        <v>11570</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29522</v>
+        <v>29262</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0161626697483658</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009913909407774219</v>
+        <v>0.009810521802431707</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02503364437183117</v>
+        <v>0.02481308265988981</v>
       </c>
     </row>
     <row r="37">
@@ -2959,19 +2959,19 @@
         <v>14609</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8341</v>
+        <v>9038</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23662</v>
+        <v>24042</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02907416803781678</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01659972655833012</v>
+        <v>0.01798662619481976</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0470921543891016</v>
+        <v>0.04784764857575685</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -2980,19 +2980,19 @@
         <v>15109</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8390</v>
+        <v>8495</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24831</v>
+        <v>25341</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02232333434026529</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01239517582050205</v>
+        <v>0.01255050593662488</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03668668999075479</v>
+        <v>0.03744054970323402</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -3001,19 +3001,19 @@
         <v>29718</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>20527</v>
+        <v>20126</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>41688</v>
+        <v>41035</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02519965200434678</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01740573083344079</v>
+        <v>0.0170663127608628</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03534919664690642</v>
+        <v>0.03479547972007291</v>
       </c>
     </row>
     <row r="38">
@@ -3030,19 +3030,19 @@
         <v>483217</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>472758</v>
+        <v>472760</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>489953</v>
+        <v>489621</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9616906111334298</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9408761879181544</v>
+        <v>0.9408790953747348</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9750977743287524</v>
+        <v>0.9744361805491425</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>633</v>
@@ -3051,19 +3051,19 @@
         <v>647312</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>634733</v>
+        <v>634513</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>656510</v>
+        <v>657116</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9563712778215799</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9377866384130155</v>
+        <v>0.9374604618441</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.969960346653541</v>
+        <v>0.9708561597506004</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1135</v>
@@ -3072,19 +3072,19 @@
         <v>1130529</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1114704</v>
+        <v>1117009</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1142347</v>
+        <v>1143491</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9586376782472874</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9452187724572843</v>
+        <v>0.9471734676563749</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.968658566034969</v>
+        <v>0.9696292229194806</v>
       </c>
     </row>
     <row r="39">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7636</v>
+        <v>6734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04501597760243568</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1561662442507204</v>
+        <v>0.1377238137701172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7485</v>
+        <v>6932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02362242196421482</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0803321131422247</v>
+        <v>0.07439615519430995</v>
       </c>
     </row>
     <row r="5">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4967</v>
+        <v>4916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02225763574311793</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1121647147678203</v>
+        <v>0.1110177278854294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -3504,19 +3504,19 @@
         <v>7610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3434</v>
+        <v>4138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14461</v>
+        <v>13932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1556392262323327</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07023889372817427</v>
+        <v>0.08464177919146061</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2957530375950606</v>
+        <v>0.2849393800469835</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -3525,19 +3525,19 @@
         <v>8595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4074</v>
+        <v>4157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16246</v>
+        <v>14873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0922504778540011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04372153301800227</v>
+        <v>0.04461881271093651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1743576079879301</v>
+        <v>0.1596296024082474</v>
       </c>
     </row>
     <row r="6">
@@ -3554,7 +3554,7 @@
         <v>43295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39314</v>
+        <v>39365</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>44281</v>
@@ -3563,7 +3563,7 @@
         <v>0.9777423642568821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8878352852321798</v>
+        <v>0.8889822721145708</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3575,19 +3575,19 @@
         <v>39083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31992</v>
+        <v>32586</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43540</v>
+        <v>43415</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7993447961652316</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6543110704054784</v>
+        <v>0.6664712818929205</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8904988998386343</v>
+        <v>0.8879473339994823</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -3596,19 +3596,19 @@
         <v>82379</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73893</v>
+        <v>75525</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87822</v>
+        <v>87756</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8841271001817841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7930507120092462</v>
+        <v>0.8105665381426188</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.942550416795776</v>
+        <v>0.9418377735765829</v>
       </c>
     </row>
     <row r="7">
@@ -3703,16 +3703,16 @@
         <v>1005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8713</v>
+        <v>8308</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04030095604081114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01269340220540446</v>
+        <v>0.01269143243077079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.110002835377382</v>
+        <v>0.1048895296922471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3721,19 +3721,19 @@
         <v>6725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2349</v>
+        <v>2316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15134</v>
+        <v>15756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06586782713695617</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02300508357044379</v>
+        <v>0.02268445407324329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1482333464364936</v>
+        <v>0.1543262262537059</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -3742,19 +3742,19 @@
         <v>9917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4450</v>
+        <v>4476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18288</v>
+        <v>17680</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05469842530114945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0245433487849108</v>
+        <v>0.02468743017408667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1008739294866721</v>
+        <v>0.09751849949350051</v>
       </c>
     </row>
     <row r="9">
@@ -3771,19 +3771,19 @@
         <v>4140</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11227</v>
+        <v>11866</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05227397520705384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01258786250091043</v>
+        <v>0.0126182473896372</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1417470140228947</v>
+        <v>0.1498125844498007</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -3792,19 +3792,19 @@
         <v>15146</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8865</v>
+        <v>8688</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22778</v>
+        <v>22967</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1483509924506835</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08682849937477868</v>
+        <v>0.08510377779034829</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2231099403060496</v>
+        <v>0.2249641138352964</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -3813,19 +3813,19 @@
         <v>19286</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12006</v>
+        <v>11833</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29680</v>
+        <v>29791</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1063778151798193</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06622082715080135</v>
+        <v>0.06526979586120082</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1637089546302329</v>
+        <v>0.1643218022408294</v>
       </c>
     </row>
     <row r="10">
@@ -3842,19 +3842,19 @@
         <v>71871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64223</v>
+        <v>64256</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76268</v>
+        <v>76166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.907425068752135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8108672777920906</v>
+        <v>0.8112805278870282</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.962945793834924</v>
+        <v>0.9616528318333755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -3863,19 +3863,19 @@
         <v>80223</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70695</v>
+        <v>70799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88014</v>
+        <v>88387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7857811804123603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6924574228913842</v>
+        <v>0.6934784881671867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8620965937271623</v>
+        <v>0.8657457858128947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -3884,19 +3884,19 @@
         <v>152094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138494</v>
+        <v>140919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160987</v>
+        <v>161766</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8389237595190313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7639118897125852</v>
+        <v>0.7772848747030556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8879804789435001</v>
+        <v>0.8922742555773892</v>
       </c>
     </row>
     <row r="11">
@@ -3991,16 +3991,16 @@
         <v>955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7283</v>
+        <v>8193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05359619057167883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01713217470897211</v>
+        <v>0.01712644519571692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1306511504129451</v>
+        <v>0.1469890270518139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4009,19 +4009,19 @@
         <v>7624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3309</v>
+        <v>3276</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15402</v>
+        <v>14417</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09533341756658353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04137303398278085</v>
+        <v>0.04096362721782208</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1926054996318588</v>
+        <v>0.1802889843208249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4030,19 +4030,19 @@
         <v>10611</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5453</v>
+        <v>5299</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18679</v>
+        <v>18204</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07819008359396096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04018418572476469</v>
+        <v>0.03904972923991496</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1376413929637217</v>
+        <v>0.1341397136909918</v>
       </c>
     </row>
     <row r="13">
@@ -4059,19 +4059,19 @@
         <v>4182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12412</v>
+        <v>11885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07502492126917308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0187484295585441</v>
+        <v>0.01884835335465328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2226742427014417</v>
+        <v>0.2132129806636213</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4080,19 +4080,19 @@
         <v>5438</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2086</v>
+        <v>2162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11010</v>
+        <v>11966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06800831820175217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02608086004228514</v>
+        <v>0.0270313042788685</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1376845053661887</v>
+        <v>0.1496299927341338</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4101,19 +4101,19 @@
         <v>9621</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4339</v>
+        <v>5308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18331</v>
+        <v>18218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07089034890668638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03197137847392129</v>
+        <v>0.03911458070432781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1350762526232272</v>
+        <v>0.1342441055794401</v>
       </c>
     </row>
     <row r="14">
@@ -4130,19 +4130,19 @@
         <v>48572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40856</v>
+        <v>40642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53657</v>
+        <v>52711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8713788881591481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7329397897591586</v>
+        <v>0.7291034876369485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9625987496578153</v>
+        <v>0.9456205258171025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -4151,19 +4151,19 @@
         <v>66906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59282</v>
+        <v>58657</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73480</v>
+        <v>72351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8366582642316643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7413206513354155</v>
+        <v>0.733501225719025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9188674556065286</v>
+        <v>0.9047438764201663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -4172,19 +4172,19 @@
         <v>115478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105322</v>
+        <v>105022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122806</v>
+        <v>122699</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8509195674993527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7760797086232685</v>
+        <v>0.7738720687754963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9049116760865926</v>
+        <v>0.9041262675399692</v>
       </c>
     </row>
     <row r="15">
@@ -4276,19 +4276,19 @@
         <v>3446</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1077</v>
+        <v>1116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9133</v>
+        <v>9144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05382785997084009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01682788924583386</v>
+        <v>0.01742350186663275</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1426411652631475</v>
+        <v>0.1428143962421794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7094</v>
+        <v>6315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02428747771819965</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08290183347574337</v>
+        <v>0.07379874649529743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4318,19 +4318,19 @@
         <v>5525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2109</v>
+        <v>2203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12944</v>
+        <v>12505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03693037196232847</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01409686661344731</v>
+        <v>0.01472531127671926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08652291535271225</v>
+        <v>0.08358531197073096</v>
       </c>
     </row>
     <row r="17">
@@ -4347,19 +4347,19 @@
         <v>3119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8630</v>
+        <v>8472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04870812361638682</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01471412505730547</v>
+        <v>0.01478745833940488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1347880552205261</v>
+        <v>0.1323139138597142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4368,19 +4368,19 @@
         <v>7445</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14620</v>
+        <v>13955</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08700526437383467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0374787041608052</v>
+        <v>0.03749392308847319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1708462932363286</v>
+        <v>0.1630769279215148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4389,19 +4389,19 @@
         <v>10564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5260</v>
+        <v>5227</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17330</v>
+        <v>18254</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07061459290899098</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0351620316927592</v>
+        <v>0.03494125401750583</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.115841949566928</v>
+        <v>0.1220185570819178</v>
       </c>
     </row>
     <row r="18">
@@ -4418,19 +4418,19 @@
         <v>57463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50860</v>
+        <v>51232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61788</v>
+        <v>60993</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8974640164127731</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7943363517361837</v>
+        <v>0.8001518841946406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9650137371856025</v>
+        <v>0.9525911112960534</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -4439,19 +4439,19 @@
         <v>76050</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68531</v>
+        <v>68474</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81194</v>
+        <v>80427</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8887072579079657</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8008406283298495</v>
+        <v>0.8001786082176664</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9488142904368422</v>
+        <v>0.9398542966226905</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>125</v>
@@ -4460,19 +4460,19 @@
         <v>133513</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124943</v>
+        <v>125172</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140302</v>
+        <v>140185</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8924550351286805</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8351723245226396</v>
+        <v>0.8367025758580832</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9378373845646564</v>
+        <v>0.9370536295490147</v>
       </c>
     </row>
     <row r="19">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5553</v>
+        <v>5459</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03272728289353373</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1756464902341383</v>
+        <v>0.1726970780037118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6113</v>
+        <v>6437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0397905387474814</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1226164340780093</v>
+        <v>0.1291115006915489</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -4606,19 +4606,19 @@
         <v>3018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8227</v>
+        <v>8162</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03704973483052905</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01195178208289027</v>
+        <v>0.01193381122027299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1009800427095064</v>
+        <v>0.1001883365553318</v>
       </c>
     </row>
     <row r="21">
@@ -4635,19 +4635,19 @@
         <v>3358</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8667</v>
+        <v>8150</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1062165599914744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03242553031032178</v>
+        <v>0.03270092679386386</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2741657619452499</v>
+        <v>0.2578125268898443</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4656,19 +4656,19 @@
         <v>3099</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8322</v>
+        <v>8071</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06215186537266412</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01959097596837262</v>
+        <v>0.01967640054713625</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1669289754313995</v>
+        <v>0.1618900883503002</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -4677,19 +4677,19 @@
         <v>6456</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2350</v>
+        <v>2193</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13093</v>
+        <v>12984</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07925059294361063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0288404144939447</v>
+        <v>0.02691943253625953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1607155543239354</v>
+        <v>0.15937201607937</v>
       </c>
     </row>
     <row r="22">
@@ -4706,19 +4706,19 @@
         <v>27220</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21903</v>
+        <v>22366</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30518</v>
+        <v>30496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8610561571149918</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6928596097880593</v>
+        <v>0.7075021664068591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.965401054911785</v>
+        <v>0.9646869052651911</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4727,19 +4727,19 @@
         <v>44773</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39080</v>
+        <v>39255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47859</v>
+        <v>47852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8980575958798545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7838826906611388</v>
+        <v>0.7873788053516663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9599574598956938</v>
+        <v>0.9598268671828695</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -4748,19 +4748,19 @@
         <v>71992</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64563</v>
+        <v>64693</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77079</v>
+        <v>77100</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8836996722258603</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.792501874399839</v>
+        <v>0.7941046213603969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9461417114911429</v>
+        <v>0.9463896178332485</v>
       </c>
     </row>
     <row r="23">
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4873,19 +4873,19 @@
         <v>5276</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2079</v>
+        <v>2105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10964</v>
+        <v>11549</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07514002771597811</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0296119507546017</v>
+        <v>0.0299813644603264</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1561491861832956</v>
+        <v>0.1644866657549844</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4894,19 +4894,19 @@
         <v>6333</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3036</v>
+        <v>2168</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13072</v>
+        <v>13087</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05191995864357706</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02488904730734028</v>
+        <v>0.01777151882105794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.107175621948223</v>
+        <v>0.1072985797199681</v>
       </c>
     </row>
     <row r="25">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7377</v>
+        <v>6423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04119190878474865</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1425269944967064</v>
+        <v>0.1241058828400171</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4944,19 +4944,19 @@
         <v>5449</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2172</v>
+        <v>2182</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11789</v>
+        <v>12027</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07760433880511738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0309340995110473</v>
+        <v>0.03108151369389842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1679055576272659</v>
+        <v>0.1712957559936907</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4965,19 +4965,19 @@
         <v>7581</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14092</v>
+        <v>14139</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06215300207080366</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02660582234617227</v>
+        <v>0.02659950463206887</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1155387744923966</v>
+        <v>0.1159228039476003</v>
       </c>
     </row>
     <row r="26">
@@ -4994,19 +4994,19 @@
         <v>48567</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43268</v>
+        <v>44272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50703</v>
+        <v>50701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9383881925538217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8359999732817253</v>
+        <v>0.8553918348089624</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9796538430971878</v>
+        <v>0.9796161305837973</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -5015,19 +5015,19 @@
         <v>59488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52869</v>
+        <v>52201</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64775</v>
+        <v>64787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8472556334789045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7529883418488199</v>
+        <v>0.7434827314131026</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9225670420760991</v>
+        <v>0.9227321534860105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>106</v>
@@ -5036,19 +5036,19 @@
         <v>108055</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>99591</v>
+        <v>100655</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114436</v>
+        <v>114458</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8859270392856192</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8165336606924941</v>
+        <v>0.8252575546196971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9382430735345202</v>
+        <v>0.9384259639643365</v>
       </c>
     </row>
     <row r="27">
@@ -5140,19 +5140,19 @@
         <v>4318</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12091</v>
+        <v>12807</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03846166589149661</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009084828694154305</v>
+        <v>0.009139867123480016</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1077033566670504</v>
+        <v>0.1140793023991179</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -5161,19 +5161,19 @@
         <v>4421</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11246</v>
+        <v>10465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03114349326986571</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007686636807696802</v>
+        <v>0.007731277159348134</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07921610660766532</v>
+        <v>0.0737143188047219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -5182,19 +5182,19 @@
         <v>8739</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4087</v>
+        <v>4326</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18094</v>
+        <v>18557</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03437511712127064</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01607530566690918</v>
+        <v>0.017016552030303</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07117222370267788</v>
+        <v>0.07299241702407841</v>
       </c>
     </row>
     <row r="29">
@@ -5211,19 +5211,19 @@
         <v>5984</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2239</v>
+        <v>2075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12710</v>
+        <v>12627</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05330349175088259</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01994386860683652</v>
+        <v>0.01848186644451186</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1132179554423257</v>
+        <v>0.1124800901558811</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -5232,19 +5232,19 @@
         <v>14285</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8327</v>
+        <v>8161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23214</v>
+        <v>22867</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1006277287576269</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05865405316343213</v>
+        <v>0.05748537552501688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1635239104334458</v>
+        <v>0.1610812372965391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -5253,19 +5253,19 @@
         <v>20269</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12363</v>
+        <v>13167</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30423</v>
+        <v>31271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07972987064910196</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04863068460822683</v>
+        <v>0.05179097537914626</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1196692719075435</v>
+        <v>0.1230061378948211</v>
       </c>
     </row>
     <row r="30">
@@ -5282,19 +5282,19 @@
         <v>101961</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>94194</v>
+        <v>93012</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>107311</v>
+        <v>107281</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9082348423576208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8390475946923014</v>
+        <v>0.8285218928653123</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9558903331362147</v>
+        <v>0.9556206698532723</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -5303,19 +5303,19 @@
         <v>123255</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>113788</v>
+        <v>113446</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130497</v>
+        <v>130327</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8682287779725073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8015373345246344</v>
+        <v>0.7991277532052349</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9192400161714758</v>
+        <v>0.918043347222683</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>203</v>
@@ -5324,19 +5324,19 @@
         <v>225218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>213158</v>
+        <v>212956</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>234355</v>
+        <v>234216</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8858950122296274</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.838457687112397</v>
+        <v>0.8376655271375719</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9218382667638537</v>
+        <v>0.9212897652330224</v>
       </c>
     </row>
     <row r="31">
@@ -5441,19 +5441,19 @@
         <v>5555</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2175</v>
+        <v>2089</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12294</v>
+        <v>12258</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03378370331390196</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01322604434227086</v>
+        <v>0.01270540414522585</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0747736950332708</v>
+        <v>0.07455319183484083</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -5462,19 +5462,19 @@
         <v>5555</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2125</v>
+        <v>2151</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12484</v>
+        <v>12400</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.019478297962948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007453017380264658</v>
+        <v>0.007543578088699158</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04377896823848893</v>
+        <v>0.04348144798629582</v>
       </c>
     </row>
     <row r="33">
@@ -5491,19 +5491,19 @@
         <v>5397</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10984</v>
+        <v>12333</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04469416791953359</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01739346712260688</v>
+        <v>0.01745292835916361</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09096450165526558</v>
+        <v>0.1021348646148974</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -5512,19 +5512,19 @@
         <v>12206</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6502</v>
+        <v>6594</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>20035</v>
+        <v>20984</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07423630533819767</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03954768442577008</v>
+        <v>0.04010499660517206</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1218572550157988</v>
+        <v>0.1276247943305834</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>16</v>
@@ -5533,19 +5533,19 @@
         <v>17603</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9983</v>
+        <v>10753</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26638</v>
+        <v>26804</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06172695292112059</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03500595339211638</v>
+        <v>0.03770642745689903</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09341172670127149</v>
+        <v>0.09399264779226042</v>
       </c>
     </row>
     <row r="34">
@@ -5562,19 +5562,19 @@
         <v>115355</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>109768</v>
+        <v>108419</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>118652</v>
+        <v>118645</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9553058320804664</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9090354983447344</v>
+        <v>0.8978651353851025</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9826065328773931</v>
+        <v>0.9825470716408364</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>135</v>
@@ -5583,19 +5583,19 @@
         <v>146657</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>137903</v>
+        <v>136567</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>154299</v>
+        <v>153369</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8919799913479004</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8387368827823961</v>
+        <v>0.8306157951301562</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9384628775874951</v>
+        <v>0.9328078043165515</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>236</v>
@@ -5604,19 +5604,19 @@
         <v>262012</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>251103</v>
+        <v>251403</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>271077</v>
+        <v>269828</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9187947491159314</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8805420800240844</v>
+        <v>0.8815945103635432</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9505837486766269</v>
+        <v>0.9462049862987055</v>
       </c>
     </row>
     <row r="35">
@@ -5708,19 +5708,19 @@
         <v>16035</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9584</v>
+        <v>9461</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26294</v>
+        <v>26428</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02865294014200883</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01712621871389013</v>
+        <v>0.01690646353126406</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04698398606949729</v>
+        <v>0.04722276121654314</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>32</v>
@@ -5729,19 +5729,19 @@
         <v>35863</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23737</v>
+        <v>24560</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48015</v>
+        <v>49619</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04826936267045644</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0319482789489466</v>
+        <v>0.03305610283802786</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06462483236218794</v>
+        <v>0.06678431420455824</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>46</v>
@@ -5750,19 +5750,19 @@
         <v>51898</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>38322</v>
+        <v>38577</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>67115</v>
+        <v>68867</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03984162188897991</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02941952924523092</v>
+        <v>0.02961504888314944</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05152371388927852</v>
+        <v>0.05286849435162169</v>
       </c>
     </row>
     <row r="37">
@@ -5779,19 +5779,19 @@
         <v>29297</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19354</v>
+        <v>20223</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42752</v>
+        <v>42855</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05235028464869421</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0345822593026635</v>
+        <v>0.03613569545859655</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07639245872141953</v>
+        <v>0.07657724338587381</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>65</v>
@@ -5800,19 +5800,19 @@
         <v>70678</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54892</v>
+        <v>54203</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>88334</v>
+        <v>87175</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09512795474627249</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07388176413924862</v>
+        <v>0.07295386757130841</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1188916747682619</v>
+        <v>0.1173327967417152</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>91</v>
@@ -5821,19 +5821,19 @@
         <v>99975</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>81240</v>
+        <v>82527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>123891</v>
+        <v>122622</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07674952135480739</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06236726385114189</v>
+        <v>0.06335511192822525</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09510986631607686</v>
+        <v>0.09413582540612313</v>
       </c>
     </row>
     <row r="38">
@@ -5850,19 +5850,19 @@
         <v>514305</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>499769</v>
+        <v>498251</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>526179</v>
+        <v>526582</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.918996775209297</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8930228871542668</v>
+        <v>0.8903101879962257</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9402146072358566</v>
+        <v>0.9409340480934542</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>597</v>
@@ -5871,19 +5871,19 @@
         <v>636434</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>614992</v>
+        <v>617130</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>654897</v>
+        <v>656553</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8566026825832711</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8277422393642957</v>
+        <v>0.8306201532843114</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8814516687298927</v>
+        <v>0.883681791307448</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1061</v>
@@ -5892,19 +5892,19 @@
         <v>1150739</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1122488</v>
+        <v>1126947</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1172929</v>
+        <v>1173560</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8834088567562127</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8617210975834726</v>
+        <v>0.8651440589545621</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9004441144945881</v>
+        <v>0.9009282884644256</v>
       </c>
     </row>
     <row r="39">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4253</v>
+        <v>4018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02060718830642581</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1093323437741979</v>
+        <v>0.1032963828548583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5086</v>
+        <v>5131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02100587542401088</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1029773402457748</v>
+        <v>0.1038889343626112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6440</v>
+        <v>6180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02083022901433897</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07294617650467837</v>
+        <v>0.06999511063992986</v>
       </c>
     </row>
     <row r="5">
@@ -6311,19 +6311,19 @@
         <v>5034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1721</v>
+        <v>2379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10048</v>
+        <v>9521</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1294217702844236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04425294980122264</v>
+        <v>0.06116049372153073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2583426553200799</v>
+        <v>0.2447823392322655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6332,19 +6332,19 @@
         <v>8074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2561</v>
+        <v>3299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14697</v>
+        <v>15726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1634779571608145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0518418487174451</v>
+        <v>0.06680183210080598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2975638958157085</v>
+        <v>0.3184067849068377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6353,19 +6353,19 @@
         <v>13108</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7646</v>
+        <v>7122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22646</v>
+        <v>22097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1484740940107155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08660059110794713</v>
+        <v>0.08067076038787291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2565023387190211</v>
+        <v>0.2502911265382977</v>
       </c>
     </row>
     <row r="6">
@@ -6382,19 +6382,19 @@
         <v>33060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27850</v>
+        <v>27782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36426</v>
+        <v>36356</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8499710414091506</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7160092781857095</v>
+        <v>0.7142717398749071</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9364877553576332</v>
+        <v>0.9346878434803407</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -6403,19 +6403,19 @@
         <v>40279</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33686</v>
+        <v>32713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46015</v>
+        <v>45556</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8155161674151746</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6820206447597504</v>
+        <v>0.6623311605785488</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9316484785411729</v>
+        <v>0.9223623500198397</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -6424,19 +6424,19 @@
         <v>73340</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64026</v>
+        <v>64120</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79216</v>
+        <v>79557</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8306956769749455</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7252062784085584</v>
+        <v>0.726266978692492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8972550648192249</v>
+        <v>0.9011226373514488</v>
       </c>
     </row>
     <row r="7">
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5145</v>
+        <v>5116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.011687496232151</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05893370082628439</v>
+        <v>0.05860638715581713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8177</v>
+        <v>9771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02338034340526987</v>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07096756438091503</v>
+        <v>0.08479828313636002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -6570,19 +6570,19 @@
         <v>3714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11388</v>
+        <v>9937</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01834029565192673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004989974751468376</v>
+        <v>0.005059014618760126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05623195735958954</v>
+        <v>0.04906617513278118</v>
       </c>
     </row>
     <row r="9">
@@ -6599,19 +6599,19 @@
         <v>4464</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1579</v>
+        <v>1748</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10183</v>
+        <v>10673</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05114195154393647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01808273546204857</v>
+        <v>0.02002797357847464</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1166465578513252</v>
+        <v>0.1222616402518112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -6620,19 +6620,19 @@
         <v>10023</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4008</v>
+        <v>3948</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19500</v>
+        <v>19103</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08698519202867459</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03478124478269286</v>
+        <v>0.03426372446474136</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1692260726954262</v>
+        <v>0.1657860973038975</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -6641,19 +6641,19 @@
         <v>14488</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8040</v>
+        <v>7891</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25696</v>
+        <v>23681</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07153543535239226</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03969972427267267</v>
+        <v>0.03896511795167654</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1268802598550815</v>
+        <v>0.1169293592528341</v>
       </c>
     </row>
     <row r="10">
@@ -6670,19 +6670,19 @@
         <v>81810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76258</v>
+        <v>75571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85442</v>
+        <v>85033</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9371705522239125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8735631272148986</v>
+        <v>0.8657010786281215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.978768852480853</v>
+        <v>0.9740858591171725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -6691,19 +6691,19 @@
         <v>102511</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92900</v>
+        <v>91998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109730</v>
+        <v>109122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8896344645660555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8062311388909452</v>
+        <v>0.7984005392708974</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9522848923271311</v>
+        <v>0.9470099992989151</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -6712,19 +6712,19 @@
         <v>184321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172404</v>
+        <v>174196</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191803</v>
+        <v>191957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.910124268995681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8512796823780027</v>
+        <v>0.8601312632446946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9470680562898552</v>
+        <v>0.9478300384949108</v>
       </c>
     </row>
     <row r="11">
@@ -6829,19 +6829,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6850,19 +6850,19 @@
         <v>4477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13389</v>
+        <v>11892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008588642653284776</v>
+        <v>0.008524931331646078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09334211302731155</v>
+        <v>0.08290147678397584</v>
       </c>
     </row>
     <row r="13">
@@ -6879,19 +6879,19 @@
         <v>3612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8930</v>
+        <v>8618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05683995904994511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01256116255723827</v>
+        <v>0.01305795632464239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1405290498610612</v>
+        <v>0.1356105783218103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -6913,19 +6913,19 @@
         <v>3612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>808</v>
+        <v>1205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9360</v>
+        <v>8757</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02518041094793336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005633698349907124</v>
+        <v>0.008399060718147907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06525522839074584</v>
+        <v>0.06104911675191653</v>
       </c>
     </row>
     <row r="14">
@@ -6942,19 +6942,19 @@
         <v>59934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54616</v>
+        <v>54928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62748</v>
+        <v>62716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9431600409500549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8594709501389405</v>
+        <v>0.8643894216781908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9874388374427617</v>
+        <v>0.9869420436753576</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -6963,19 +6963,19 @@
         <v>75420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -6984,19 +6984,19 @@
         <v>135354</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127215</v>
+        <v>127928</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139816</v>
+        <v>139827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9436065874023214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8868685995276772</v>
+        <v>0.8918406286843007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9747156742947456</v>
+        <v>0.9747932900707508</v>
       </c>
     </row>
     <row r="15">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4947</v>
+        <v>6287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02485926907056918</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07643940552133056</v>
+        <v>0.0971592005537314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8059</v>
+        <v>7744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02807564522328345</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.088000610788904</v>
+        <v>0.0845698700126512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -7130,19 +7130,19 @@
         <v>4180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1261</v>
+        <v>1270</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10947</v>
+        <v>10509</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0267438696422097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008068903937419943</v>
+        <v>0.008129191765904839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07004636056514393</v>
+        <v>0.06724478538331395</v>
       </c>
     </row>
     <row r="17">
@@ -7159,19 +7159,19 @@
         <v>5440</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2566</v>
+        <v>2531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11291</v>
+        <v>11198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08406456841689527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03965681703337559</v>
+        <v>0.03911845930492731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1744732782695067</v>
+        <v>0.1730502061219039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7180,19 +7180,19 @@
         <v>4394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12509</v>
+        <v>12576</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04797777935574534</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01080566005884984</v>
+        <v>0.01081998934238465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1366035601399986</v>
+        <v>0.1373289785568901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -7201,19 +7201,19 @@
         <v>9833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4663</v>
+        <v>4461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19317</v>
+        <v>18250</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06291990744932725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02983920499397865</v>
+        <v>0.02854610044514325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.12360364895695</v>
+        <v>0.1167719318378382</v>
       </c>
     </row>
     <row r="18">
@@ -7230,19 +7230,19 @@
         <v>57663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51455</v>
+        <v>51453</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61279</v>
+        <v>61335</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8910761625125355</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7951433033761095</v>
+        <v>0.7951040416576031</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9469462402277966</v>
+        <v>0.9478133763496734</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -7251,19 +7251,19 @@
         <v>84609</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76093</v>
+        <v>76174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89086</v>
+        <v>89059</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9239465754209713</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.830944500643564</v>
+        <v>0.8318289757490823</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9728308924625617</v>
+        <v>0.9725396109196974</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -7272,19 +7272,19 @@
         <v>142272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132058</v>
+        <v>133219</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>148405</v>
+        <v>148525</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9103362229084631</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.844981095631397</v>
+        <v>0.8524110655974745</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.949582315160695</v>
+        <v>0.9503501862198409</v>
       </c>
     </row>
     <row r="19">
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7751</v>
+        <v>6999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04476066551979473</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1533952200520138</v>
+        <v>0.1385009096082256</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6802</v>
+        <v>7110</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02442285673531417</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0734484630917582</v>
+        <v>0.07677481574715156</v>
       </c>
     </row>
     <row r="21">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -7460,19 +7460,19 @@
         <v>4436</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10009</v>
+        <v>9918</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08779192201303075</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02233268916391824</v>
+        <v>0.02240773261235125</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1980650056070584</v>
+        <v>0.1962772570166248</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -7481,19 +7481,19 @@
         <v>5235</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1762</v>
+        <v>1992</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11381</v>
+        <v>11025</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05653025748096433</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01902534403458416</v>
+        <v>0.0215043774673344</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1228882242063504</v>
+        <v>0.1190481117010157</v>
       </c>
     </row>
     <row r="22">
@@ -7510,7 +7510,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7519,7 +7519,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7531,19 +7531,19 @@
         <v>43834</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38031</v>
+        <v>38071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48224</v>
+        <v>48178</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8674474124671745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7526035247483542</v>
+        <v>0.7533957057524233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9543317851141244</v>
+        <v>0.9534114642915114</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -7552,19 +7552,19 @@
         <v>85115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77996</v>
+        <v>79055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89516</v>
+        <v>89325</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9190468857837215</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8421767128485537</v>
+        <v>0.8536157969244115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9665715407260298</v>
+        <v>0.9645096318941124</v>
       </c>
     </row>
     <row r="23">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5061</v>
+        <v>5016</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03408805658412575</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1044730680093349</v>
+        <v>0.1035295853923575</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7677,19 +7677,19 @@
         <v>3713</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10945</v>
+        <v>9501</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05509438046115021</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01788743249482204</v>
+        <v>0.01770608671774395</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1624249594351038</v>
+        <v>0.1409884391827068</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -7698,19 +7698,19 @@
         <v>5364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1928</v>
+        <v>2049</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11695</v>
+        <v>11459</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04630875333752277</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01664861839992083</v>
+        <v>0.01768880937121417</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1009604227220673</v>
+        <v>0.09892191629694655</v>
       </c>
     </row>
     <row r="25">
@@ -7727,19 +7727,19 @@
         <v>3377</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7692</v>
+        <v>7594</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06969651851093688</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01684621010607353</v>
+        <v>0.016642852977626</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.158765928764103</v>
+        <v>0.1567605673900025</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7748,19 +7748,19 @@
         <v>6889</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2276</v>
+        <v>2367</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15115</v>
+        <v>15067</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1022333843092335</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03376982805885951</v>
+        <v>0.03512268369005258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2243015169707593</v>
+        <v>0.2235918205415303</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -7769,19 +7769,19 @@
         <v>10266</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4651</v>
+        <v>4818</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18814</v>
+        <v>19057</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08862525504545526</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0401513312921864</v>
+        <v>0.04159261892848732</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1624189026334613</v>
+        <v>0.1645228966673968</v>
       </c>
     </row>
     <row r="26">
@@ -7798,19 +7798,19 @@
         <v>43418</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38222</v>
+        <v>38436</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46633</v>
+        <v>46757</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8962154249049373</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.788952439164735</v>
+        <v>0.7933778113919526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.962578549138606</v>
+        <v>0.9651441044971876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -7819,19 +7819,19 @@
         <v>56786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48848</v>
+        <v>48939</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62634</v>
+        <v>62541</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8426722352296162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7248696193156817</v>
+        <v>0.7262266052658323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9294589908891285</v>
+        <v>0.9280739808410023</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -7840,19 +7840,19 @@
         <v>100204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91021</v>
+        <v>90394</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107025</v>
+        <v>106683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8650659916170219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7857866342824069</v>
+        <v>0.7803791883920581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9239549511335559</v>
+        <v>0.9210024436120789</v>
       </c>
     </row>
     <row r="27">
@@ -7944,19 +7944,19 @@
         <v>2803</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8296</v>
+        <v>8423</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02498331507213839</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007933539990928325</v>
+        <v>0.007876392164478423</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07395115007001542</v>
+        <v>0.07508271239585486</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -7965,19 +7965,19 @@
         <v>3813</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11054</v>
+        <v>10676</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02583051029868304</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008419509441201321</v>
+        <v>0.008433811277466077</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0748761887394159</v>
+        <v>0.07231593595297138</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -7986,19 +7986,19 @@
         <v>6616</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3023</v>
+        <v>2244</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14045</v>
+        <v>14384</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02546469322792988</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01163481070433914</v>
+        <v>0.008637279689946379</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05405810721904215</v>
+        <v>0.05536164434439524</v>
       </c>
     </row>
     <row r="29">
@@ -8015,19 +8015,19 @@
         <v>2860</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7523</v>
+        <v>7750</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02549420133762485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007996265799485407</v>
+        <v>0.007920432541693116</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06705725055864448</v>
+        <v>0.06908092162574662</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -8036,19 +8036,19 @@
         <v>7176</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2498</v>
+        <v>2422</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15347</v>
+        <v>14035</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04861071454508825</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01692146021477562</v>
+        <v>0.01640697933221386</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1039623182928884</v>
+        <v>0.09507348361992392</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -8057,19 +8057,19 @@
         <v>10036</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4967</v>
+        <v>4545</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17758</v>
+        <v>17364</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03862905402267128</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01911749175264565</v>
+        <v>0.01749499432753579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06835086569017783</v>
+        <v>0.06683290022215199</v>
       </c>
     </row>
     <row r="30">
@@ -8086,19 +8086,19 @@
         <v>106522</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>100858</v>
+        <v>100081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110217</v>
+        <v>110243</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9495224835902367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8990307471883758</v>
+        <v>0.8921085229996145</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9824590720911575</v>
+        <v>0.9826857562710999</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>116</v>
@@ -8107,19 +8107,19 @@
         <v>136636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128036</v>
+        <v>128168</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>142578</v>
+        <v>142629</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9255587751562288</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.86730818529419</v>
+        <v>0.868197077137856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9658139842474343</v>
+        <v>0.9661546352478061</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>219</v>
@@ -8128,19 +8128,19 @@
         <v>243158</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>232982</v>
+        <v>232963</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>249909</v>
+        <v>249985</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9359062527493989</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8967387578244186</v>
+        <v>0.8966675651394664</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9618912422829964</v>
+        <v>0.9621825472323448</v>
       </c>
     </row>
     <row r="31">
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>7400</v>
+        <v>8162</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01629353350343449</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0551573108795683</v>
+        <v>0.06083600979629684</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>8</v>
@@ -8300,19 +8300,19 @@
         <v>10059</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4774</v>
+        <v>4113</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>18747</v>
+        <v>18275</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05705566281326355</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02707699819981198</v>
+        <v>0.02332972982386753</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1063397912212369</v>
+        <v>0.103658621609491</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>10</v>
@@ -8321,19 +8321,19 @@
         <v>12245</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>6069</v>
+        <v>6087</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21965</v>
+        <v>21918</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03944019972152778</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01954737773292938</v>
+        <v>0.01960725361250208</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07074908349541628</v>
+        <v>0.07059629679770563</v>
       </c>
     </row>
     <row r="34">
@@ -8350,7 +8350,7 @@
         <v>131982</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>126768</v>
+        <v>126006</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>134168</v>
@@ -8359,7 +8359,7 @@
         <v>0.9837064664965655</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9448426891204308</v>
+        <v>0.9391639902037043</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -8371,19 +8371,19 @@
         <v>166238</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>157550</v>
+        <v>158022</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>171523</v>
+        <v>172184</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9429443371867364</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8936602087787631</v>
+        <v>0.896341378390509</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9729230018001882</v>
+        <v>0.9766702701761295</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>273</v>
@@ -8392,19 +8392,19 @@
         <v>298220</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>288500</v>
+        <v>288547</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>304396</v>
+        <v>304378</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9605598002784722</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9292509165045831</v>
+        <v>0.9294037032022942</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9804526222670705</v>
+        <v>0.9803927463874978</v>
       </c>
     </row>
     <row r="35">
@@ -8496,19 +8496,19 @@
         <v>7885</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13900</v>
+        <v>14759</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01333382825653308</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005990252344639737</v>
+        <v>0.006192742614898788</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02350656826071905</v>
+        <v>0.02495890361317886</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -8517,19 +8517,19 @@
         <v>20568</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12143</v>
+        <v>12206</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31654</v>
+        <v>32795</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02643886985996252</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01560939890619797</v>
+        <v>0.01569038050638642</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0406899766994222</v>
+        <v>0.04215621566238242</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -8538,19 +8538,19 @@
         <v>28452</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17655</v>
+        <v>19031</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40798</v>
+        <v>40932</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02077932843683528</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01289408420099123</v>
+        <v>0.01389900960560117</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02979532113257839</v>
+        <v>0.02989318080147898</v>
       </c>
     </row>
     <row r="37">
@@ -8567,19 +8567,19 @@
         <v>27772</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19709</v>
+        <v>18996</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38817</v>
+        <v>38577</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04696553602805021</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03333042152161954</v>
+        <v>0.03212489674544652</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06564316092972756</v>
+        <v>0.06523839501034706</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>39</v>
@@ -8588,19 +8588,19 @@
         <v>51051</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35959</v>
+        <v>37098</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>68728</v>
+        <v>69253</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06562462013646428</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04622354509747601</v>
+        <v>0.0476880545511331</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08834765156679961</v>
+        <v>0.08902225800421344</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>70</v>
@@ -8609,19 +8609,19 @@
         <v>78823</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>61830</v>
+        <v>63546</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>99400</v>
+        <v>100263</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05756651069852477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04515615716333225</v>
+        <v>0.04640931155679181</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07259414497114992</v>
+        <v>0.07322399182221301</v>
       </c>
     </row>
     <row r="38">
@@ -8638,19 +8638,19 @@
         <v>555671</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>543194</v>
+        <v>543780</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>564624</v>
+        <v>565130</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9397006357154167</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9186001127909812</v>
+        <v>0.9195913186920865</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9548402652951206</v>
+        <v>0.9556971511191401</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>600</v>
@@ -8659,19 +8659,19 @@
         <v>706312</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>686474</v>
+        <v>685580</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>723569</v>
+        <v>722336</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9079365100035732</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8824358795048375</v>
+        <v>0.8812858484833761</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9301202578281202</v>
+        <v>0.9285347890354211</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1187</v>
@@ -8680,19 +8680,19 @@
         <v>1261983</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1240161</v>
+        <v>1239897</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1283401</v>
+        <v>1281715</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9216541608646399</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9057169600646515</v>
+        <v>0.9055242644949784</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9372963446209587</v>
+        <v>0.9360647288012546</v>
       </c>
     </row>
     <row r="39">
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4385</v>
+        <v>4410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01452442622984818</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07194589609960098</v>
+        <v>0.07235211677504376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -9096,19 +9096,19 @@
         <v>5852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3003</v>
+        <v>2841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10009</v>
+        <v>9865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08964834419374894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0460085856450698</v>
+        <v>0.04352702788303001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1533390626184969</v>
+        <v>0.1511274140494213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -9117,19 +9117,19 @@
         <v>6737</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3382</v>
+        <v>3688</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11427</v>
+        <v>11614</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05337231070147297</v>
+        <v>0.05337231070147298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02678866742171541</v>
+        <v>0.02921504246196379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09052809460598446</v>
+        <v>0.09200915370361966</v>
       </c>
     </row>
     <row r="6">
@@ -9146,7 +9146,7 @@
         <v>60070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56570</v>
+        <v>56545</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>60955</v>
@@ -9155,7 +9155,7 @@
         <v>0.9854755737701518</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9280541039003991</v>
+        <v>0.9276478832249563</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -9167,19 +9167,19 @@
         <v>59424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55267</v>
+        <v>55411</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62273</v>
+        <v>62435</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9103516558062511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8466609373815029</v>
+        <v>0.8488725859505786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9539914143549303</v>
+        <v>0.9564729721169697</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>204</v>
@@ -9188,19 +9188,19 @@
         <v>119494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114804</v>
+        <v>114617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122849</v>
+        <v>122543</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9466276892985269</v>
+        <v>0.946627689298527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9094719053940158</v>
+        <v>0.9079908462963807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9732113325782845</v>
+        <v>0.9707849575380363</v>
       </c>
     </row>
     <row r="7">
@@ -9292,19 +9292,19 @@
         <v>3690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8686</v>
+        <v>8905</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04175809189915081</v>
+        <v>0.04175809189915082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01049121394669612</v>
+        <v>0.01053295584154283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09828303770887785</v>
+        <v>0.1007628348757773</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -9313,19 +9313,19 @@
         <v>7698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3859</v>
+        <v>3992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13628</v>
+        <v>12431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05688745442214658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02851562067132009</v>
+        <v>0.02949553694201599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.100703024073221</v>
+        <v>0.09185964021604873</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -9334,19 +9334,19 @@
         <v>11389</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6534</v>
+        <v>6792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18453</v>
+        <v>18484</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05091059164872233</v>
+        <v>0.05091059164872232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02920964158260682</v>
+        <v>0.03036250145665974</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08249133177519816</v>
+        <v>0.08262704607754276</v>
       </c>
     </row>
     <row r="9">
@@ -9363,19 +9363,19 @@
         <v>2916</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7893</v>
+        <v>7796</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03299639896209768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0</v>
+        <v>0.01044392702533659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08931168300323419</v>
+        <v>0.08821694216326813</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -9384,19 +9384,19 @@
         <v>14102</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9007</v>
+        <v>9231</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21527</v>
+        <v>19920</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1042097229672033</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06655725826674201</v>
+        <v>0.06821257614564927</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1590757877082429</v>
+        <v>0.1471994824389288</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -9405,19 +9405,19 @@
         <v>17018</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10942</v>
+        <v>11640</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23666</v>
+        <v>24598</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07607686115157967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.048912703358021</v>
+        <v>0.05203346895958848</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1057923095227533</v>
+        <v>0.1099605192826548</v>
       </c>
     </row>
     <row r="10">
@@ -9434,19 +9434,19 @@
         <v>81767</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75462</v>
+        <v>76115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85525</v>
+        <v>85467</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9252455091387516</v>
+        <v>0.9252455091387515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8539039279554937</v>
+        <v>0.8612928059669313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9677775559633944</v>
+        <v>0.9671144559166274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>190</v>
@@ -9455,19 +9455,19 @@
         <v>113527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105447</v>
+        <v>106444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119587</v>
+        <v>119733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8389028226106502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7791992968384307</v>
+        <v>0.7865609900200171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8836829763490631</v>
+        <v>0.8847605166845542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -9476,19 +9476,19 @@
         <v>195294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186580</v>
+        <v>186183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203283</v>
+        <v>202621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8730125471996979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8340597750169702</v>
+        <v>0.8322839550048404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9087251191115188</v>
+        <v>0.9057663977550422</v>
       </c>
     </row>
     <row r="11">
@@ -9580,19 +9580,19 @@
         <v>1810</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4889</v>
+        <v>5321</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02504371727709481</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007579833723151913</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06763047391437639</v>
+        <v>0.07361688634619495</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -9601,19 +9601,19 @@
         <v>3173</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1076</v>
+        <v>1338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6255</v>
+        <v>7049</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03695956551520039</v>
+        <v>0.0369595655152004</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01253239852879148</v>
+        <v>0.01558413677098235</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07285535975904986</v>
+        <v>0.08210293247900054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -9622,19 +9622,19 @@
         <v>4983</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2575</v>
+        <v>2286</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8685</v>
+        <v>9354</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03151272101018067</v>
+        <v>0.03151272101018068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01628113832890321</v>
+        <v>0.01445707016125171</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05492382846817177</v>
+        <v>0.05915037010175034</v>
       </c>
     </row>
     <row r="13">
@@ -9651,19 +9651,19 @@
         <v>9694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5802</v>
+        <v>6091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14124</v>
+        <v>14656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1341036285097208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08027220340646268</v>
+        <v>0.08426608959525046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1953989866882596</v>
+        <v>0.20274754028404</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -9672,19 +9672,19 @@
         <v>10067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6553</v>
+        <v>6407</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15055</v>
+        <v>14966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1172630441718862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07632671494978673</v>
+        <v>0.07463203782172986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1753622329237203</v>
+        <v>0.1743293060488371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -9693,19 +9693,19 @@
         <v>19761</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14032</v>
+        <v>14296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26141</v>
+        <v>26392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1249610311241301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08873569197730796</v>
+        <v>0.09040253537373479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1653050799247475</v>
+        <v>0.166892493801935</v>
       </c>
     </row>
     <row r="14">
@@ -9722,19 +9722,19 @@
         <v>60781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55669</v>
+        <v>55924</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64950</v>
+        <v>65082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8408526542131846</v>
+        <v>0.8408526542131843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7701274736164547</v>
+        <v>0.7736544728642432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8985320500542524</v>
+        <v>0.9003521978538396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -9743,19 +9743,19 @@
         <v>72610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67086</v>
+        <v>67211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76344</v>
+        <v>76855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8457773903129134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7814347842138849</v>
+        <v>0.7828933009792801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8892697098803406</v>
+        <v>0.8952232983006021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -9764,19 +9764,19 @@
         <v>133391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126958</v>
+        <v>126614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139999</v>
+        <v>139602</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8435262478656891</v>
+        <v>0.8435262478656894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8028474067802525</v>
+        <v>0.8006686051111682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8853133062443357</v>
+        <v>0.882799570507469</v>
       </c>
     </row>
     <row r="15">
@@ -9881,19 +9881,19 @@
         <v>2048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4409</v>
+        <v>4371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01852907722461122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006923961588701526</v>
+        <v>0.006891620778489559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0399028035995322</v>
+        <v>0.03955354827449328</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9902,19 +9902,19 @@
         <v>2048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4708</v>
+        <v>4724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01057282181139313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00370623656338587</v>
+        <v>0.003986215890947323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02430889134363502</v>
+        <v>0.02439211061382093</v>
       </c>
     </row>
     <row r="17">
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2939</v>
+        <v>3288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007749956082851173</v>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03534581218589911</v>
+        <v>0.03954257513855641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -9952,19 +9952,19 @@
         <v>8525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5391</v>
+        <v>5290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12809</v>
+        <v>12620</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07714595859769671</v>
+        <v>0.07714595859769673</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04878961734937916</v>
+        <v>0.04787159957014587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.115915386246222</v>
+        <v>0.1142073778219468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -9973,19 +9973,19 @@
         <v>9169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5760</v>
+        <v>5766</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13547</v>
+        <v>13887</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04734780329986748</v>
+        <v>0.04734780329986746</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02974397331175409</v>
+        <v>0.02977326518040753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0699539904421434</v>
+        <v>0.0717089429986169</v>
       </c>
     </row>
     <row r="18">
@@ -10002,7 +10002,7 @@
         <v>82512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80217</v>
+        <v>79868</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83156</v>
@@ -10011,7 +10011,7 @@
         <v>0.9922500439171489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9646541878141012</v>
+        <v>0.9604574248614446</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -10023,19 +10023,19 @@
         <v>99932</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95015</v>
+        <v>95613</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>103351</v>
+        <v>103851</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9043249641776921</v>
+        <v>0.9043249641776923</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8598291868264875</v>
+        <v>0.8652490843094978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9352669256915316</v>
+        <v>0.9397942744623602</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>348</v>
@@ -10044,19 +10044,19 @@
         <v>182443</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177556</v>
+        <v>177607</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>186089</v>
+        <v>186134</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9420793748887394</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9168448798077949</v>
+        <v>0.917108665628396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9609077346305913</v>
+        <v>0.9611357482481178</v>
       </c>
     </row>
     <row r="19">
@@ -10164,16 +10164,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2489</v>
+        <v>2308</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006900628330110013</v>
+        <v>0.006900628330110014</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04069282120329628</v>
+        <v>0.03774213260128899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2029</v>
+        <v>2244</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004321525442399862</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02077870474817756</v>
+        <v>0.02297214438227843</v>
       </c>
     </row>
     <row r="21">
@@ -10211,19 +10211,19 @@
         <v>2099</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4838</v>
+        <v>4951</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05749255526163936</v>
+        <v>0.05749255526163935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01423315223135791</v>
+        <v>0.01659291396807013</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1325414580129131</v>
+        <v>0.1356241284102149</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -10232,19 +10232,19 @@
         <v>5885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3321</v>
+        <v>3401</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9418</v>
+        <v>9836</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09621831205410131</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05429909561005768</v>
+        <v>0.05559707222297564</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1539736343480762</v>
+        <v>0.1608163655033446</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -10253,19 +10253,19 @@
         <v>7984</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4882</v>
+        <v>4694</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11878</v>
+        <v>12353</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08174459945949657</v>
+        <v>0.08174459945949655</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04998701061072478</v>
+        <v>0.04805733390847235</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1216122203615501</v>
+        <v>0.126482043574272</v>
       </c>
     </row>
     <row r="22">
@@ -10282,19 +10282,19 @@
         <v>34404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31665</v>
+        <v>31552</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35983</v>
+        <v>35897</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9425074447383608</v>
+        <v>0.9425074447383605</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8674585419870868</v>
+        <v>0.8643758715897857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9857668477686422</v>
+        <v>0.9834070860319299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>149</v>
@@ -10303,19 +10303,19 @@
         <v>54857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51223</v>
+        <v>50985</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57427</v>
+        <v>57374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8968810596157887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8374633733965703</v>
+        <v>0.8335707591918712</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9389027646703144</v>
+        <v>0.9380357512721342</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>216</v>
@@ -10324,19 +10324,19 @@
         <v>89261</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85338</v>
+        <v>84893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92495</v>
+        <v>92713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9139338750981036</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8737658161358525</v>
+        <v>0.8692061693212197</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9470412127851161</v>
+        <v>0.9492797358868158</v>
       </c>
     </row>
     <row r="23">
@@ -10428,19 +10428,19 @@
         <v>1504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02498060767940158</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00787114978297683</v>
+        <v>0.007845291944073844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06644604998559582</v>
+        <v>0.06301280610136339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -10449,19 +10449,19 @@
         <v>4410</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2202</v>
+        <v>2398</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7375</v>
+        <v>7881</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06551529501364764</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03272200644214487</v>
+        <v>0.03562228553485543</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1095714010361307</v>
+        <v>0.1170915849494385</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -10470,19 +10470,19 @@
         <v>5914</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3481</v>
+        <v>3635</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9222</v>
+        <v>9761</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04637388555463475</v>
+        <v>0.04637388555463476</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.027293106178239</v>
+        <v>0.02850102216848901</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07231358194420645</v>
+        <v>0.07653688584848933</v>
       </c>
     </row>
     <row r="25">
@@ -10499,19 +10499,19 @@
         <v>3765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1898</v>
+        <v>1826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6849</v>
+        <v>6750</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06252281624287553</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03151702696539248</v>
+        <v>0.03032414461059662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1137201673016364</v>
+        <v>0.1120867612376726</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -10520,19 +10520,19 @@
         <v>7346</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4823</v>
+        <v>4669</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10687</v>
+        <v>10450</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1091347955912125</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07165171726949318</v>
+        <v>0.06937265159988687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1587708988812799</v>
+        <v>0.1552528118424119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -10541,19 +10541,19 @@
         <v>11111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7700</v>
+        <v>7856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15137</v>
+        <v>15437</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0871235493949757</v>
+        <v>0.08712354939497571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06038083922661324</v>
+        <v>0.06160365997073036</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1186943111080709</v>
+        <v>0.1210417874380271</v>
       </c>
     </row>
     <row r="26">
@@ -10570,19 +10570,19 @@
         <v>54954</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51802</v>
+        <v>51898</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57248</v>
+        <v>57339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9124965760777229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8601569504909864</v>
+        <v>0.8617563213475697</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.95059261959209</v>
+        <v>0.9520984695018569</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -10591,19 +10591,19 @@
         <v>55553</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51409</v>
+        <v>51612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59074</v>
+        <v>58693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.82534990939514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7637786565329581</v>
+        <v>0.7667939215086695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8776550011133958</v>
+        <v>0.8719912330256573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>264</v>
@@ -10612,19 +10612,19 @@
         <v>110507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105410</v>
+        <v>105500</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114684</v>
+        <v>114560</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8665025650503894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.826533838931368</v>
+        <v>0.8272407816844085</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8992554767179293</v>
+        <v>0.898283741823797</v>
       </c>
     </row>
     <row r="27">
@@ -10719,16 +10719,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5194</v>
+        <v>5165</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.006863446928103687</v>
+        <v>0.006863446928103688</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03432248769628796</v>
+        <v>0.03412588498944454</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -10737,19 +10737,19 @@
         <v>3972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1929</v>
+        <v>1329</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8052</v>
+        <v>7945</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02410496925104848</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01170957858206432</v>
+        <v>0.008068392203973413</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04886828943400713</v>
+        <v>0.04821770585768301</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -10758,19 +10758,19 @@
         <v>5010</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2346</v>
+        <v>1990</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10199</v>
+        <v>9936</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01585040583272153</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007420368170284391</v>
+        <v>0.006296270697207076</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03226329697142669</v>
+        <v>0.03143321556638994</v>
       </c>
     </row>
     <row r="29">
@@ -10787,19 +10787,19 @@
         <v>5304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11893</v>
+        <v>12038</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0350435016971495</v>
+        <v>0.03504350169714951</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01292436423905545</v>
+        <v>0.01293759470724965</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07858430145021403</v>
+        <v>0.07954198918658296</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -10808,19 +10808,19 @@
         <v>10335</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5916</v>
+        <v>5925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16998</v>
+        <v>15936</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06272327039766099</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03590221853246353</v>
+        <v>0.03595852180740627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1031645512223391</v>
+        <v>0.09671494224568851</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -10829,19 +10829,19 @@
         <v>15638</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9549</v>
+        <v>9589</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24087</v>
+        <v>24016</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04947128476302073</v>
+        <v>0.04947128476302074</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03020616320902824</v>
+        <v>0.03033327653522945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07619733902657633</v>
+        <v>0.07597333190185698</v>
       </c>
     </row>
     <row r="30">
@@ -10858,19 +10858,19 @@
         <v>144999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>137928</v>
+        <v>138025</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148832</v>
+        <v>148545</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9580930513747467</v>
+        <v>0.9580930513747469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9113756349355464</v>
+        <v>0.9120141325594761</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9834204070949916</v>
+        <v>0.9815281633696216</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>222</v>
@@ -10879,19 +10879,19 @@
         <v>150462</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>143321</v>
+        <v>144038</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>155634</v>
+        <v>155960</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9131717603512904</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8698295711306411</v>
+        <v>0.8741843374469623</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9445609618382375</v>
+        <v>0.9465347773845023</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>384</v>
@@ -10900,19 +10900,19 @@
         <v>295462</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>287078</v>
+        <v>286734</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>302406</v>
+        <v>302669</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9346783094042577</v>
+        <v>0.9346783094042578</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9081558900017521</v>
+        <v>0.9070661855100673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9566450404823159</v>
+        <v>0.9574777572212747</v>
       </c>
     </row>
     <row r="31">
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002788440306748137</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01399075804803023</v>
+        <v>0.01398595204125803</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3230</v>
+        <v>2963</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001574804531153257</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008594307884304354</v>
+        <v>0.007885843577928103</v>
       </c>
     </row>
     <row r="33">
@@ -11067,19 +11067,19 @@
         <v>4704</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8815</v>
+        <v>9369</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02876413689582042</v>
+        <v>0.02876413689582041</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01229204434586112</v>
+        <v>0.01228450553475196</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05389923998756276</v>
+        <v>0.05728487507120145</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -11088,19 +11088,19 @@
         <v>9082</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4758</v>
+        <v>4690</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>16808</v>
+        <v>17394</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.04279341614390158</v>
+        <v>0.04279341614390159</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02241852303526393</v>
+        <v>0.02210112759155088</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07919824362749511</v>
+        <v>0.08195911478457935</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>19</v>
@@ -11109,19 +11109,19 @@
         <v>13786</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8190</v>
+        <v>8611</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>22077</v>
+        <v>21141</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03668733771716335</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02179334071368959</v>
+        <v>0.02291419539334504</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05874836949084235</v>
+        <v>0.05625952481009456</v>
       </c>
     </row>
     <row r="34">
@@ -11138,19 +11138,19 @@
         <v>158850</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>154739</v>
+        <v>154185</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>161544</v>
+        <v>161545</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9712358631041796</v>
+        <v>0.9712358631041794</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.946100760012437</v>
+        <v>0.9427151249287985</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9877079556541389</v>
+        <v>0.9877154944652481</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>329</v>
@@ -11159,19 +11159,19 @@
         <v>202553</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>195295</v>
+        <v>194406</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>207131</v>
+        <v>207003</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9544181435493502</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9202194995878109</v>
+        <v>0.9160303234305884</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9759861295905883</v>
+        <v>0.9753833966718157</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>557</v>
@@ -11180,19 +11180,19 @@
         <v>361403</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>352895</v>
+        <v>354022</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>367064</v>
+        <v>366742</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9617378577516834</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9390965023770732</v>
+        <v>0.9420958844425403</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9768034628572363</v>
+        <v>0.975944911208167</v>
       </c>
     </row>
     <row r="35">
@@ -11284,19 +11284,19 @@
         <v>8044</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4160</v>
+        <v>3831</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14340</v>
+        <v>13926</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.01122811130564676</v>
+        <v>0.01122811130564677</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005806819043045378</v>
+        <v>0.005348324167165491</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02001759562216862</v>
+        <v>0.01943910730022562</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>41</v>
@@ -11305,19 +11305,19 @@
         <v>22314</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15361</v>
+        <v>16207</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29165</v>
+        <v>30204</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02472700613662748</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01702153841243427</v>
+        <v>0.01795927013413088</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03231826609955291</v>
+        <v>0.03346984160910544</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>53</v>
@@ -11326,19 +11326,19 @@
         <v>30358</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22892</v>
+        <v>23267</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40061</v>
+        <v>39616</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01875320771719611</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01414109155508469</v>
+        <v>0.0143730740908476</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02474709251915952</v>
+        <v>0.02447190112280928</v>
       </c>
     </row>
     <row r="37">
@@ -11355,19 +11355,19 @@
         <v>30011</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22721</v>
+        <v>22418</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41320</v>
+        <v>40555</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04189258991605381</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03171590463438377</v>
+        <v>0.03129325463662677</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05767849699517404</v>
+        <v>0.05661077610914789</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>136</v>
@@ -11376,19 +11376,19 @@
         <v>71194</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59936</v>
+        <v>59487</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>85635</v>
+        <v>84257</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0788916401475033</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06641662814432778</v>
+        <v>0.06591890305303684</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09489397311245205</v>
+        <v>0.09336682146587914</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>183</v>
@@ -11397,19 +11397,19 @@
         <v>101205</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>87166</v>
+        <v>87446</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>116051</v>
+        <v>117934</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06251808730776781</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05384560649682078</v>
+        <v>0.05401851069054415</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07168897060074843</v>
+        <v>0.07285197459447899</v>
       </c>
     </row>
     <row r="38">
@@ -11426,19 +11426,19 @@
         <v>678336</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>666650</v>
+        <v>665314</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>686694</v>
+        <v>686692</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9468792987782995</v>
+        <v>0.9468792987782996</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9305669744171549</v>
+        <v>0.9287029242301914</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9585467593034956</v>
+        <v>0.9585436715513667</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1528</v>
@@ -11447,19 +11447,19 @@
         <v>808918</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>792634</v>
+        <v>794029</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>821400</v>
+        <v>821628</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.8963813537158691</v>
+        <v>0.8963813537158692</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8783372835404591</v>
+        <v>0.8798831082479088</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9102136880440865</v>
+        <v>0.9104660070496717</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2496</v>
@@ -11468,19 +11468,19 @@
         <v>1487255</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1469142</v>
+        <v>1468873</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1504435</v>
+        <v>1502156</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9187287049750362</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9075397266174023</v>
+        <v>0.9073739251795241</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9293417986230472</v>
+        <v>0.9279335790209766</v>
       </c>
     </row>
     <row r="39">
